--- a/Data_R_description.xlsx
+++ b/Data_R_description.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Country</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t xml:space="preserve">Posistiv - если положительная величина Net_trade (преобладает </t>
+  </si>
+  <si>
+    <t>Inflation_GDP_deflator (annual %)</t>
   </si>
 </sst>
 </file>
@@ -607,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -714,7 +717,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>26</v>
